--- a/Datos/Anuario2024/090304_EnseñanzasArtesPlasticasDiseño.xlsx
+++ b/Datos/Anuario2024/090304_EnseñanzasArtesPlasticasDiseño.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4770" windowWidth="15480" windowHeight="4830" tabRatio="725" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4770" windowWidth="15480" windowHeight="4830" tabRatio="725"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="157" r:id="rId1"/>
+    <sheet name="1" sheetId="85" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_1">#REF!</definedName>
@@ -50,110 +56,187 @@
     <definedName name="_R5_5">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+  <si>
+    <t>Nota: Datos provisionales.</t>
+  </si>
+  <si>
+    <t>Estudios Superiores de Diseño</t>
+  </si>
+  <si>
+    <t>Alumnado graduado</t>
+  </si>
+  <si>
+    <t>Alumnado matriculado</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Ciclos Formativos de Grado Superior</t>
+  </si>
+  <si>
+    <t>Fotografía Artística</t>
+  </si>
+  <si>
+    <t>Joyería Artística</t>
+  </si>
+  <si>
+    <t>Diseño de Producto</t>
+  </si>
+  <si>
+    <t>Diseño de Moda</t>
+  </si>
+  <si>
+    <t>Diseño de Interiores</t>
+  </si>
+  <si>
+    <t>Diseño Gráfico</t>
+  </si>
+  <si>
+    <t>1. Escuela de Arte y Superior de Diseño</t>
+  </si>
+  <si>
+    <t>ENSEÑANZAS DE ARTES PLÁSTICAS Y DISEÑO</t>
+  </si>
+  <si>
+    <t>Maestro de Taller de Artes Plásticas y Diseño</t>
+  </si>
+  <si>
+    <t>Catedráticos</t>
+  </si>
+  <si>
+    <t>Profesores de Artes Plásticas y Diseño</t>
+  </si>
+  <si>
+    <t>Curso 2022/23</t>
+  </si>
+  <si>
+    <t>Curso 2023/24</t>
+  </si>
+  <si>
+    <t>Profesorado. Curso 2023/24</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Evaluación y Calidad. Conselleria de Educación, Universidades y Empleo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-C0A];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-C0A]"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial1"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="Arial1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial1"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
+      <color indexed="61"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="61"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
-      <u val="single"/>
-    </font>
-    <font>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="12"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <u val="single"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -191,121 +274,121 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Result" xfId="5"/>
-    <cellStyle name="Result2" xfId="6"/>
     <cellStyle name="Comma [0]_Apoyo_PDI" xfId="7"/>
     <cellStyle name="Comma_Apoyo_PDI" xfId="8"/>
     <cellStyle name="Currency [0]_Apoyo_PDI" xfId="9"/>
     <cellStyle name="Currency_Apoyo_PDI" xfId="10"/>
     <cellStyle name="Followed Hyperlink_Apoyo_PDI" xfId="11"/>
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
     <cellStyle name="Hyperlink_Apoyo_PDI" xfId="12"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 5" xfId="13"/>
+    <cellStyle name="Result" xfId="5"/>
+    <cellStyle name="Result2" xfId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -374,7 +457,18 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE6E6"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -664,509 +758,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja99">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col width="55.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>ENSEÑANZAS DE ARTES PLÁSTICAS Y DISEÑO</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja106">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col width="38.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="8.7109375" customWidth="1" style="1" min="2" max="7"/>
-    <col width="11.42578125" customWidth="1" style="1" min="8" max="16384"/>
+    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
+    <col min="2" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>1. Escuela de Arte y Superior de Diseño</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="n"/>
-      <c r="C1" s="6" t="n"/>
-      <c r="D1" s="6" t="n"/>
-      <c r="E1" s="6" t="n"/>
-      <c r="F1" s="6" t="n"/>
-      <c r="G1" s="6" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="n"/>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="6" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="1">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="28" t="inlineStr">
-        <is>
-          <t>Alumnado matriculado</t>
-        </is>
-      </c>
-      <c r="D3" s="32" t="n"/>
-      <c r="E3" s="29" t="inlineStr">
-        <is>
-          <t>Alumnado graduado</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="1">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="28" t="inlineStr">
-        <is>
-          <t>Curso 2023/24</t>
-        </is>
-      </c>
-      <c r="D4" s="32" t="n"/>
-      <c r="E4" s="29" t="inlineStr">
-        <is>
-          <t>Curso 2022/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="1">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="30" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C5" s="30" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="D5" s="23" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="E5" s="30" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F5" s="30" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="G5" s="30" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Ciclos Formativos de Grado Superior</t>
-        </is>
-      </c>
-      <c r="B6" s="24" t="n">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19">
         <v>84</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="21">
         <v>26</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="21">
         <v>58</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="21">
         <v>18</v>
       </c>
-      <c r="F6" s="24" t="n">
+      <c r="F6" s="21">
         <v>4</v>
       </c>
-      <c r="G6" s="24" t="n">
+      <c r="G6" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="1">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>Fotografía Artística</t>
-        </is>
-      </c>
-      <c r="B7" s="16">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
         <f>SUM(C7:D7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="16" t="n">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5">
         <v>19</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="5">
         <v>29</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="5">
         <f>SUM(F7:G7)</f>
-        <v/>
-      </c>
-      <c r="F7" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="G7" s="25" t="n">
+      <c r="G7" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Joyería Artística</t>
-        </is>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="8">
         <f>SUM(C8:D8)</f>
-        <v/>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="8">
         <v>29</v>
       </c>
       <c r="E8" s="8">
         <f>SUM(F8:G8)</f>
-        <v/>
-      </c>
-      <c r="F8" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="14">
         <v>2</v>
       </c>
-      <c r="G8" s="26" t="n">
+      <c r="G8" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="1">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t>Estudios Superiores de Diseño</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="n">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20">
         <v>1480</v>
       </c>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="20">
         <v>1099</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="20">
         <v>381</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="20">
         <v>228</v>
       </c>
-      <c r="F9" s="20" t="n">
+      <c r="F9" s="20">
         <v>50</v>
       </c>
-      <c r="G9" s="20" t="n">
+      <c r="G9" s="20">
         <v>178</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="1">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>Diseño Gráfico</t>
-        </is>
-      </c>
-      <c r="B10" s="26">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10">
         <f>SUM(C10:D10)</f>
-        <v/>
-      </c>
-      <c r="C10" s="26" t="n">
+        <v>610</v>
+      </c>
+      <c r="C10" s="10">
         <v>478</v>
       </c>
-      <c r="D10" s="26" t="n">
+      <c r="D10" s="10">
         <v>132</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="22">
         <f>SUM(F10:G10)</f>
-        <v/>
-      </c>
-      <c r="F10" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="F10" s="6">
         <v>20</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="1">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Diseño de Interiores</t>
-        </is>
-      </c>
-      <c r="B11" s="16">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
         <f>SUM(C11:D11)</f>
-        <v/>
-      </c>
-      <c r="C11" s="16" t="n">
+        <v>306</v>
+      </c>
+      <c r="C11" s="5">
         <v>220</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="5">
         <v>86</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="5">
         <f>SUM(F11:G11)</f>
-        <v/>
-      </c>
-      <c r="F11" s="25" t="n">
+        <v>59</v>
+      </c>
+      <c r="F11" s="9">
         <v>10</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="1">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t>Diseño de Moda</t>
-        </is>
-      </c>
-      <c r="B12" s="26">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22">
         <f>SUM(C12:D12)</f>
-        <v/>
-      </c>
-      <c r="C12" s="8" t="n">
+        <v>325</v>
+      </c>
+      <c r="C12" s="8">
         <v>221</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="8">
         <v>104</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="22">
         <f>SUM(F12:G12)</f>
-        <v/>
-      </c>
-      <c r="F12" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F12" s="14">
         <v>11</v>
       </c>
-      <c r="G12" s="26" t="n">
+      <c r="G12" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="1">
-      <c r="A13" s="13" t="inlineStr">
-        <is>
-          <t>Diseño de Producto</t>
-        </is>
-      </c>
-      <c r="B13" s="16">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
         <f>SUM(C13:D13)</f>
-        <v/>
-      </c>
-      <c r="C13" s="16" t="n">
+        <v>239</v>
+      </c>
+      <c r="C13" s="5">
         <v>180</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="5">
         <v>59</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="5">
         <f>SUM(F13:G13)</f>
-        <v/>
-      </c>
-      <c r="F13" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" s="9">
         <v>9</v>
       </c>
-      <c r="G13" s="25" t="n">
+      <c r="G13" s="9">
         <v>41</v>
       </c>
     </row>
-    <row r="14" ht="16.15" customHeight="1" s="1">
-      <c r="A14" s="17" t="n"/>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="26" t="n"/>
-      <c r="F14" s="26" t="n"/>
-      <c r="G14" s="26" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="29" t="inlineStr">
-        <is>
-          <t>Profesorado. Curso 2023/24</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="1">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="30" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D16" s="30" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="F16" s="30" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="18">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="14" spans="1:7" ht="16.149999999999999" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B17" s="24">
         <f>SUM(B18:C20)</f>
-        <v/>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C17" s="24"/>
       <c r="D17" s="24">
         <f>SUM(D18:E20)</f>
-        <v/>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E17" s="24"/>
       <c r="F17" s="24">
         <f>SUM(F18:G20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="18">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>Maestro de Taller de Artes Plásticas y Diseño</t>
-        </is>
+        <v>106</v>
+      </c>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B18" s="25">
         <f>SUM(D18:G18)</f>
-        <v/>
-      </c>
-      <c r="D18" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25">
         <v>3</v>
       </c>
-      <c r="F18" s="25" t="n">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="18">
-      <c r="A19" s="17" t="inlineStr">
-        <is>
-          <t>Profesores de Artes Plásticas y Diseño</t>
-        </is>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="B19" s="26">
-        <f>SUM(D19:G19)</f>
-        <v/>
-      </c>
-      <c r="D19" s="26" t="n">
+        <f t="shared" ref="B19:B20" si="0">SUM(D19:G19)</f>
+        <v>161</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26">
         <v>66</v>
       </c>
-      <c r="F19" s="26" t="n">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="18">
-      <c r="A20" s="13" t="inlineStr">
-        <is>
-          <t>Catedráticos</t>
-        </is>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B20" s="25">
-        <f>SUM(D20:G20)</f>
-        <v/>
-      </c>
-      <c r="D20" s="25" t="n">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25">
         <v>3</v>
       </c>
-      <c r="F20" s="25" t="n">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25">
         <v>8</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="15" t="inlineStr">
-        <is>
-          <t>Nota: Datos provisionales.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" s="1">
-      <c r="A22" s="15" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Evaluación y Calidad. Conselleria de Educación, Universidades y Empleo</t>
-        </is>
-      </c>
-      <c r="L22" s="7" t="n"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" customFormat="1">
+      <c r="A22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>